--- a/m25/other/team_details.xlsx
+++ b/m25/other/team_details.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28908"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10116"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abhinaya/Desktop/itsabhinaya.github.io/m25/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abhinaya/Desktop/itsabhinaya.github.io/m25/other/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="940" yWindow="460" windowWidth="27860" windowHeight="17540" tabRatio="500"/>
+    <workbookView xWindow="980" yWindow="460" windowWidth="27820" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="advisors" sheetId="2" r:id="rId1"/>
     <sheet name="team" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -246,7 +246,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -319,6 +319,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -586,7 +589,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -715,7 +718,7 @@
         <v>59</v>
       </c>
       <c r="D5" t="str">
-        <f t="shared" ref="D5:E7" si="1">E4</f>
+        <f t="shared" ref="D5:E6" si="1">E4</f>
         <v>advisorModal3</v>
       </c>
       <c r="E5" t="str">
@@ -768,7 +771,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -927,7 +930,7 @@
         <v>37</v>
       </c>
       <c r="F5" t="str">
-        <f t="shared" ref="F5:G7" si="1">G4</f>
+        <f t="shared" ref="F5:G6" si="1">G4</f>
         <v>teamModal3</v>
       </c>
       <c r="G5" t="str">
